--- a/bleu_scripts/dataset3.xlsx
+++ b/bleu_scripts/dataset3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Year4\Year4_T1\SEPA\DeepLearningTranslationApp\bleu_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4448C7-E4A0-4901-906B-77ECDDD5758C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAEAEA4-3B1D-4716-A2EE-0227BB1758F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="1688">
   <si>
     <t>Translated from  -  FRENCH</t>
   </si>
@@ -5636,7 +5636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6058,6 +6058,8 @@
     <xf numFmtId="0" fontId="15" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6291,41 +6293,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="150"/>
-      <c r="AD1" s="150"/>
-      <c r="AE1" s="150"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="150"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="152"/>
     </row>
     <row r="2" spans="1:33" ht="87.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -41385,10 +41387,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F706"/>
+  <dimension ref="A1:H708"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -41397,6 +41399,7 @@
     <col min="2" max="4" width="33.7109375" style="33" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="114"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" thickBot="1">
@@ -45882,7 +45885,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+    <row r="321" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A321" s="33">
         <v>3</v>
       </c>
@@ -45896,7 +45899,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+    <row r="322" spans="1:6" s="149" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A322" s="33">
         <v>3</v>
       </c>
@@ -45909,201 +45912,202 @@
       <c r="D322" s="125" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="F322" s="114"/>
+    </row>
+    <row r="323" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A323" s="33">
-        <v>4</v>
-      </c>
-      <c r="B323" s="145" t="s">
-        <v>911</v>
-      </c>
-      <c r="C323" s="145" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D323" s="145" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="B323" s="125" t="s">
+        <v>938</v>
+      </c>
+      <c r="C323" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A324" s="33">
         <v>4</v>
       </c>
-      <c r="B324" s="125" t="s">
-        <v>912</v>
-      </c>
-      <c r="C324" s="125" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D324" s="125" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B324" s="145" t="s">
+        <v>911</v>
+      </c>
+      <c r="C324" s="145" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D324" s="145" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A325" s="33">
         <v>4</v>
       </c>
       <c r="B325" s="125" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C325" s="125" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D325" s="125" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A326" s="33">
         <v>4</v>
       </c>
       <c r="B326" s="125" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C326" s="125" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D326" s="125" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A327" s="33">
         <v>4</v>
       </c>
       <c r="B327" s="125" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C327" s="125" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D327" s="125" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A328" s="33">
         <v>4</v>
       </c>
       <c r="B328" s="125" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C328" s="125" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D328" s="125" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A329" s="33">
         <v>4</v>
       </c>
       <c r="B329" s="125" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C329" s="125" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D329" s="125" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A330" s="33">
         <v>4</v>
       </c>
       <c r="B330" s="125" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C330" s="125" t="s">
-        <v>12</v>
+        <v>1040</v>
       </c>
       <c r="D330" s="125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A331" s="33">
         <v>4</v>
       </c>
       <c r="B331" s="125" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C331" s="125" t="s">
-        <v>1041</v>
+        <v>12</v>
       </c>
       <c r="D331" s="125" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A332" s="33">
         <v>4</v>
       </c>
       <c r="B332" s="125" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C332" s="125" t="s">
-        <v>12</v>
+        <v>1041</v>
       </c>
       <c r="D332" s="125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A333" s="33">
         <v>4</v>
       </c>
       <c r="B333" s="125" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C333" s="125" t="s">
-        <v>1042</v>
+        <v>12</v>
       </c>
       <c r="D333" s="125" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A334" s="33">
         <v>4</v>
       </c>
       <c r="B334" s="125" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C334" s="125" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D334" s="125" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A335" s="33">
         <v>4</v>
       </c>
       <c r="B335" s="125" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C335" s="125" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D335" s="125" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A336" s="33">
         <v>4</v>
       </c>
       <c r="B336" s="125" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C336" s="125" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D336" s="125" t="s">
-        <v>1067</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46111,13 +46115,13 @@
         <v>4</v>
       </c>
       <c r="B337" s="125" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C337" s="125" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D337" s="125" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46125,13 +46129,13 @@
         <v>4</v>
       </c>
       <c r="B338" s="125" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C338" s="125" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D338" s="125" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46139,13 +46143,13 @@
         <v>4</v>
       </c>
       <c r="B339" s="125" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C339" s="125" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D339" s="125" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46153,13 +46157,13 @@
         <v>4</v>
       </c>
       <c r="B340" s="125" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C340" s="125" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D340" s="125" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46167,13 +46171,13 @@
         <v>4</v>
       </c>
       <c r="B341" s="125" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C341" s="125" t="s">
-        <v>12</v>
+        <v>1049</v>
       </c>
       <c r="D341" s="125" t="s">
-        <v>12</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46181,13 +46185,13 @@
         <v>4</v>
       </c>
       <c r="B342" s="125" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C342" s="125" t="s">
-        <v>1050</v>
+        <v>12</v>
       </c>
       <c r="D342" s="125" t="s">
-        <v>1072</v>
+        <v>12</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46195,13 +46199,13 @@
         <v>4</v>
       </c>
       <c r="B343" s="125" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C343" s="125" t="s">
-        <v>12</v>
+        <v>1050</v>
       </c>
       <c r="D343" s="125" t="s">
-        <v>12</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46209,13 +46213,13 @@
         <v>4</v>
       </c>
       <c r="B344" s="125" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C344" s="125" t="s">
-        <v>1051</v>
+        <v>12</v>
       </c>
       <c r="D344" s="125" t="s">
-        <v>1051</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46223,13 +46227,13 @@
         <v>4</v>
       </c>
       <c r="B345" s="125" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C345" s="125" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D345" s="125" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46237,13 +46241,13 @@
         <v>4</v>
       </c>
       <c r="B346" s="125" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C346" s="125" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D346" s="125" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46251,13 +46255,13 @@
         <v>4</v>
       </c>
       <c r="B347" s="125" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C347" s="125" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D347" s="125" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46265,13 +46269,13 @@
         <v>4</v>
       </c>
       <c r="B348" s="125" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C348" s="125" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D348" s="125" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46279,13 +46283,13 @@
         <v>4</v>
       </c>
       <c r="B349" s="125" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C349" s="125" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D349" s="125" t="s">
-        <v>1056</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46293,189 +46297,190 @@
         <v>4</v>
       </c>
       <c r="B350" s="125" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C350" s="125" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D350" s="125" t="s">
-        <v>1077</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A351" s="33">
-        <v>5</v>
-      </c>
-      <c r="B351" s="145" t="s">
-        <v>911</v>
-      </c>
-      <c r="C351" s="145" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D351" s="145" t="s">
-        <v>1097</v>
+        <v>4</v>
+      </c>
+      <c r="B351" s="125" t="s">
+        <v>938</v>
+      </c>
+      <c r="C351" s="125" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D351" s="125" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A352" s="33">
         <v>5</v>
       </c>
-      <c r="B352" s="125" t="s">
-        <v>912</v>
-      </c>
-      <c r="C352" s="125" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D352" s="125" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B352" s="145" t="s">
+        <v>911</v>
+      </c>
+      <c r="C352" s="145" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D352" s="145" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A353" s="33">
         <v>5</v>
       </c>
       <c r="B353" s="125" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C353" s="125" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D353" s="125" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A354" s="33">
         <v>5</v>
       </c>
       <c r="B354" s="125" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C354" s="125" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D354" s="125" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A355" s="33">
         <v>5</v>
       </c>
       <c r="B355" s="125" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C355" s="125" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D355" s="125" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A356" s="33">
         <v>5</v>
       </c>
       <c r="B356" s="125" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C356" s="125" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D356" s="125" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A357" s="33">
         <v>5</v>
       </c>
       <c r="B357" s="125" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C357" s="125" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D357" s="125" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A358" s="33">
         <v>5</v>
       </c>
       <c r="B358" s="125" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C358" s="125" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D358" s="125" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A359" s="33">
         <v>5</v>
       </c>
       <c r="B359" s="125" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C359" s="125" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D359" s="125" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1104</v>
+      </c>
+      <c r="H359" s="150"/>
+    </row>
+    <row r="360" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A360" s="33">
         <v>5</v>
       </c>
       <c r="B360" s="125" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C360" s="125" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D360" s="125" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A361" s="33">
         <v>5</v>
       </c>
       <c r="B361" s="125" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C361" s="125" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D361" s="125" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A362" s="33">
         <v>5</v>
       </c>
       <c r="B362" s="125" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C362" s="125" t="s">
-        <v>12</v>
+        <v>1088</v>
       </c>
       <c r="D362" s="125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A363" s="33">
         <v>5</v>
       </c>
       <c r="B363" s="125" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C363" s="125" t="s">
         <v>12</v>
@@ -46484,68 +46489,68 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+    <row r="364" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A364" s="33">
         <v>5</v>
       </c>
       <c r="B364" s="125" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C364" s="125" t="s">
-        <v>1089</v>
+        <v>12</v>
       </c>
       <c r="D364" s="125" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A365" s="33">
         <v>5</v>
       </c>
       <c r="B365" s="125" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C365" s="125" t="s">
-        <v>12</v>
+        <v>1089</v>
       </c>
       <c r="D365" s="125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A366" s="33">
         <v>5</v>
       </c>
       <c r="B366" s="125" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C366" s="125" t="s">
-        <v>1090</v>
+        <v>12</v>
       </c>
       <c r="D366" s="125" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A367" s="33">
         <v>5</v>
       </c>
       <c r="B367" s="125" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C367" s="125" t="s">
-        <v>12</v>
+        <v>1090</v>
       </c>
       <c r="D367" s="125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A368" s="33">
         <v>5</v>
       </c>
       <c r="B368" s="125" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C368" s="125" t="s">
         <v>12</v>
@@ -46554,12 +46559,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+    <row r="369" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A369" s="33">
         <v>5</v>
       </c>
       <c r="B369" s="125" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C369" s="125" t="s">
         <v>12</v>
@@ -46568,214 +46573,215 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+    <row r="370" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A370" s="33">
         <v>5</v>
       </c>
       <c r="B370" s="125" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C370" s="125" t="s">
-        <v>1091</v>
+        <v>12</v>
       </c>
       <c r="D370" s="125" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A371" s="33">
         <v>5</v>
       </c>
       <c r="B371" s="125" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C371" s="125" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D371" s="125" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A372" s="33">
         <v>5</v>
       </c>
       <c r="B372" s="125" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C372" s="125" t="s">
-        <v>12</v>
+        <v>1092</v>
       </c>
       <c r="D372" s="125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A373" s="33">
         <v>5</v>
       </c>
       <c r="B373" s="125" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C373" s="125" t="s">
-        <v>1093</v>
+        <v>12</v>
       </c>
       <c r="D373" s="125" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A374" s="33">
         <v>5</v>
       </c>
       <c r="B374" s="125" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C374" s="125" t="s">
-        <v>12</v>
+        <v>1093</v>
       </c>
       <c r="D374" s="125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A375" s="33">
         <v>5</v>
       </c>
       <c r="B375" s="125" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C375" s="125" t="s">
-        <v>1094</v>
+        <v>12</v>
       </c>
       <c r="D375" s="125" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A376" s="33">
         <v>5</v>
       </c>
       <c r="B376" s="125" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C376" s="125" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D376" s="125" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A377" s="33">
         <v>5</v>
       </c>
       <c r="B377" s="125" t="s">
+        <v>936</v>
+      </c>
+      <c r="C377" s="125" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D377" s="125" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" s="150" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A378" s="33">
+        <v>5</v>
+      </c>
+      <c r="B378" s="125" t="s">
         <v>937</v>
       </c>
-      <c r="C377" s="125" t="s">
+      <c r="C378" s="125" t="s">
         <v>1096</v>
       </c>
-      <c r="D377" s="125" t="s">
+      <c r="D378" s="125" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A378" s="33">
-        <v>6</v>
-      </c>
-      <c r="B378" s="145" t="s">
-        <v>911</v>
-      </c>
-      <c r="C378" s="145" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D378" s="145" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="F378" s="114"/>
+    </row>
+    <row r="379" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A379" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B379" s="125" t="s">
-        <v>912</v>
-      </c>
-      <c r="C379" s="125" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D379" s="125" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>938</v>
+      </c>
+      <c r="C379" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D379" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A380" s="33">
         <v>6</v>
       </c>
-      <c r="B380" s="125" t="s">
-        <v>913</v>
-      </c>
-      <c r="C380" s="125" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D380" s="125" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B380" s="145" t="s">
+        <v>911</v>
+      </c>
+      <c r="C380" s="145" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D380" s="145" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A381" s="33">
         <v>6</v>
       </c>
       <c r="B381" s="125" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C381" s="125" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D381" s="125" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A382" s="33">
         <v>6</v>
       </c>
       <c r="B382" s="125" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C382" s="125" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D382" s="125" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A383" s="33">
         <v>6</v>
       </c>
       <c r="B383" s="125" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C383" s="125" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D383" s="125" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A384" s="33">
         <v>6</v>
       </c>
       <c r="B384" s="125" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C384" s="125" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D384" s="125" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46783,13 +46789,13 @@
         <v>6</v>
       </c>
       <c r="B385" s="125" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C385" s="125" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D385" s="125" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46797,13 +46803,13 @@
         <v>6</v>
       </c>
       <c r="B386" s="125" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C386" s="125" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D386" s="125" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46811,13 +46817,13 @@
         <v>6</v>
       </c>
       <c r="B387" s="125" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C387" s="125" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D387" s="125" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46825,13 +46831,13 @@
         <v>6</v>
       </c>
       <c r="B388" s="125" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C388" s="125" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D388" s="125" t="s">
-        <v>921</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46839,13 +46845,13 @@
         <v>6</v>
       </c>
       <c r="B389" s="125" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C389" s="125" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D389" s="125" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46853,13 +46859,13 @@
         <v>6</v>
       </c>
       <c r="B390" s="125" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C390" s="125" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D390" s="125" t="s">
-        <v>1152</v>
+        <v>921</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46867,13 +46873,13 @@
         <v>6</v>
       </c>
       <c r="B391" s="125" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C391" s="125" t="s">
-        <v>12</v>
+        <v>1125</v>
       </c>
       <c r="D391" s="125" t="s">
-        <v>12</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46881,13 +46887,13 @@
         <v>6</v>
       </c>
       <c r="B392" s="125" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C392" s="125" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D392" s="125" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46895,13 +46901,13 @@
         <v>6</v>
       </c>
       <c r="B393" s="125" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C393" s="125" t="s">
-        <v>1128</v>
+        <v>12</v>
       </c>
       <c r="D393" s="125" t="s">
-        <v>1154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46909,13 +46915,13 @@
         <v>6</v>
       </c>
       <c r="B394" s="125" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C394" s="125" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D394" s="125" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46923,13 +46929,13 @@
         <v>6</v>
       </c>
       <c r="B395" s="125" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C395" s="125" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D395" s="125" t="s">
-        <v>928</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46937,13 +46943,13 @@
         <v>6</v>
       </c>
       <c r="B396" s="125" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C396" s="125" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D396" s="125" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46951,13 +46957,13 @@
         <v>6</v>
       </c>
       <c r="B397" s="125" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C397" s="125" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D397" s="125" t="s">
-        <v>1132</v>
+        <v>928</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46965,13 +46971,13 @@
         <v>6</v>
       </c>
       <c r="B398" s="125" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C398" s="125" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D398" s="125" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46979,13 +46985,13 @@
         <v>6</v>
       </c>
       <c r="B399" s="125" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C399" s="125" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D399" s="125" t="s">
-        <v>1158</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -46993,13 +46999,13 @@
         <v>6</v>
       </c>
       <c r="B400" s="125" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C400" s="125" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D400" s="125" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47007,13 +47013,13 @@
         <v>6</v>
       </c>
       <c r="B401" s="125" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C401" s="125" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D401" s="125" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47021,13 +47027,13 @@
         <v>6</v>
       </c>
       <c r="B402" s="125" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C402" s="125" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D402" s="125" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47035,13 +47041,13 @@
         <v>6</v>
       </c>
       <c r="B403" s="125" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C403" s="125" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D403" s="125" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47049,13 +47055,13 @@
         <v>6</v>
       </c>
       <c r="B404" s="125" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C404" s="125" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D404" s="125" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47063,55 +47069,55 @@
         <v>6</v>
       </c>
       <c r="B405" s="125" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C405" s="125" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D405" s="125" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A406" s="33">
-        <v>7</v>
-      </c>
-      <c r="B406" s="145" t="s">
-        <v>911</v>
-      </c>
-      <c r="C406" s="145" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D406" s="145" t="s">
-        <v>1193</v>
+        <v>6</v>
+      </c>
+      <c r="B406" s="125" t="s">
+        <v>937</v>
+      </c>
+      <c r="C406" s="125" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D406" s="125" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A407" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B407" s="125" t="s">
-        <v>912</v>
+        <v>938</v>
       </c>
       <c r="C407" s="125" t="s">
-        <v>1166</v>
+        <v>1140</v>
       </c>
       <c r="D407" s="125" t="s">
-        <v>1194</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A408" s="33">
         <v>7</v>
       </c>
-      <c r="B408" s="125" t="s">
-        <v>913</v>
-      </c>
-      <c r="C408" s="125" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D408" s="125" t="s">
-        <v>1195</v>
+      <c r="B408" s="145" t="s">
+        <v>911</v>
+      </c>
+      <c r="C408" s="145" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D408" s="145" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47119,13 +47125,13 @@
         <v>7</v>
       </c>
       <c r="B409" s="125" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C409" s="125" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D409" s="125" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47133,13 +47139,13 @@
         <v>7</v>
       </c>
       <c r="B410" s="125" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C410" s="125" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D410" s="125" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47147,13 +47153,13 @@
         <v>7</v>
       </c>
       <c r="B411" s="125" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C411" s="125" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D411" s="125" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47161,13 +47167,13 @@
         <v>7</v>
       </c>
       <c r="B412" s="125" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C412" s="125" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D412" s="125" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47175,13 +47181,13 @@
         <v>7</v>
       </c>
       <c r="B413" s="125" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C413" s="125" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D413" s="125" t="s">
-        <v>1172</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47189,13 +47195,13 @@
         <v>7</v>
       </c>
       <c r="B414" s="125" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C414" s="125" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D414" s="125" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47203,13 +47209,13 @@
         <v>7</v>
       </c>
       <c r="B415" s="125" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C415" s="125" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D415" s="125" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47217,13 +47223,13 @@
         <v>7</v>
       </c>
       <c r="B416" s="125" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C416" s="125" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D416" s="125" t="s">
-        <v>1175</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47231,13 +47237,13 @@
         <v>7</v>
       </c>
       <c r="B417" s="125" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C417" s="125" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D417" s="125" t="s">
-        <v>1201</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47245,13 +47251,13 @@
         <v>7</v>
       </c>
       <c r="B418" s="125" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C418" s="125" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D418" s="125" t="s">
-        <v>1202</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47259,13 +47265,13 @@
         <v>7</v>
       </c>
       <c r="B419" s="125" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C419" s="125" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D419" s="125" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47273,13 +47279,13 @@
         <v>7</v>
       </c>
       <c r="B420" s="125" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C420" s="125" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D420" s="125" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47287,13 +47293,13 @@
         <v>7</v>
       </c>
       <c r="B421" s="125" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C421" s="125" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D421" s="125" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47301,13 +47307,13 @@
         <v>7</v>
       </c>
       <c r="B422" s="125" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C422" s="125" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D422" s="125" t="s">
-        <v>1181</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47315,13 +47321,13 @@
         <v>7</v>
       </c>
       <c r="B423" s="125" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C423" s="125" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D423" s="125" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47329,13 +47335,13 @@
         <v>7</v>
       </c>
       <c r="B424" s="125" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C424" s="125" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D424" s="125" t="s">
-        <v>1207</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47343,13 +47349,13 @@
         <v>7</v>
       </c>
       <c r="B425" s="125" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C425" s="125" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D425" s="125" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47357,13 +47363,13 @@
         <v>7</v>
       </c>
       <c r="B426" s="125" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C426" s="125" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D426" s="125" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47371,13 +47377,13 @@
         <v>7</v>
       </c>
       <c r="B427" s="125" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C427" s="125" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D427" s="125" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47385,13 +47391,13 @@
         <v>7</v>
       </c>
       <c r="B428" s="125" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C428" s="125" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D428" s="125" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47399,13 +47405,13 @@
         <v>7</v>
       </c>
       <c r="B429" s="125" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C429" s="125" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D429" s="125" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47413,13 +47419,13 @@
         <v>7</v>
       </c>
       <c r="B430" s="125" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C430" s="125" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D430" s="125" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47427,13 +47433,13 @@
         <v>7</v>
       </c>
       <c r="B431" s="125" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C431" s="125" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D431" s="125" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47441,13 +47447,13 @@
         <v>7</v>
       </c>
       <c r="B432" s="125" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C432" s="125" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D432" s="125" t="s">
-        <v>1191</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47455,55 +47461,55 @@
         <v>7</v>
       </c>
       <c r="B433" s="125" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C433" s="125" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D433" s="125" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A434" s="33">
-        <v>1</v>
-      </c>
-      <c r="B434" s="145" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C434" s="145" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D434" s="145" t="s">
-        <v>1287</v>
+        <v>7</v>
+      </c>
+      <c r="B434" s="125" t="s">
+        <v>937</v>
+      </c>
+      <c r="C434" s="125" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D434" s="125" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A435" s="33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B435" s="125" t="s">
-        <v>1217</v>
+        <v>938</v>
       </c>
       <c r="C435" s="125" t="s">
-        <v>1256</v>
+        <v>1192</v>
       </c>
       <c r="D435" s="125" t="s">
-        <v>1288</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A436" s="33">
         <v>1</v>
       </c>
-      <c r="B436" s="125" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C436" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D436" s="125" t="s">
-        <v>12</v>
+      <c r="B436" s="145" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C436" s="145" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D436" s="145" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47511,13 +47517,13 @@
         <v>1</v>
       </c>
       <c r="B437" s="125" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C437" s="125" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D437" s="125" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47525,13 +47531,13 @@
         <v>1</v>
       </c>
       <c r="B438" s="125" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C438" s="125" t="s">
-        <v>1258</v>
+        <v>12</v>
       </c>
       <c r="D438" s="125" t="s">
-        <v>1290</v>
+        <v>12</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47539,13 +47545,13 @@
         <v>1</v>
       </c>
       <c r="B439" s="125" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C439" s="125" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D439" s="125" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47553,13 +47559,13 @@
         <v>1</v>
       </c>
       <c r="B440" s="125" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C440" s="125" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D440" s="125" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47567,13 +47573,13 @@
         <v>1</v>
       </c>
       <c r="B441" s="125" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C441" s="125" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D441" s="125" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47581,13 +47587,13 @@
         <v>1</v>
       </c>
       <c r="B442" s="125" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C442" s="125" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D442" s="125" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47595,13 +47601,13 @@
         <v>1</v>
       </c>
       <c r="B443" s="125" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C443" s="125" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D443" s="125" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47609,13 +47615,13 @@
         <v>1</v>
       </c>
       <c r="B444" s="125" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C444" s="125" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D444" s="125" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47623,13 +47629,13 @@
         <v>1</v>
       </c>
       <c r="B445" s="125" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C445" s="125" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D445" s="125" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47637,13 +47643,13 @@
         <v>1</v>
       </c>
       <c r="B446" s="125" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C446" s="125" t="s">
-        <v>12</v>
+        <v>1264</v>
       </c>
       <c r="D446" s="125" t="s">
-        <v>12</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47651,13 +47657,13 @@
         <v>1</v>
       </c>
       <c r="B447" s="125" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C447" s="125" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D447" s="125" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47665,13 +47671,13 @@
         <v>1</v>
       </c>
       <c r="B448" s="125" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C448" s="125" t="s">
-        <v>1267</v>
+        <v>12</v>
       </c>
       <c r="D448" s="125" t="s">
-        <v>1299</v>
+        <v>12</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47679,13 +47685,13 @@
         <v>1</v>
       </c>
       <c r="B449" s="125" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C449" s="125" t="s">
-        <v>12</v>
+        <v>1266</v>
       </c>
       <c r="D449" s="125" t="s">
-        <v>12</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47693,13 +47699,13 @@
         <v>1</v>
       </c>
       <c r="B450" s="125" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C450" s="125" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D450" s="125" t="s">
-        <v>1268</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47707,13 +47713,13 @@
         <v>1</v>
       </c>
       <c r="B451" s="125" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C451" s="125" t="s">
-        <v>1269</v>
+        <v>12</v>
       </c>
       <c r="D451" s="125" t="s">
-        <v>1269</v>
+        <v>12</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47721,13 +47727,13 @@
         <v>1</v>
       </c>
       <c r="B452" s="125" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C452" s="125" t="s">
-        <v>12</v>
+        <v>1268</v>
       </c>
       <c r="D452" s="125" t="s">
-        <v>12</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47735,13 +47741,13 @@
         <v>1</v>
       </c>
       <c r="B453" s="125" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C453" s="125" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D453" s="125" t="s">
-        <v>1300</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47749,13 +47755,13 @@
         <v>1</v>
       </c>
       <c r="B454" s="125" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C454" s="125" t="s">
-        <v>1271</v>
+        <v>12</v>
       </c>
       <c r="D454" s="125" t="s">
-        <v>1301</v>
+        <v>12</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47763,13 +47769,13 @@
         <v>1</v>
       </c>
       <c r="B455" s="125" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C455" s="125" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D455" s="125" t="s">
-        <v>1272</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47777,13 +47783,13 @@
         <v>1</v>
       </c>
       <c r="B456" s="125" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C456" s="125" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D456" s="125" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47791,13 +47797,13 @@
         <v>1</v>
       </c>
       <c r="B457" s="125" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C457" s="125" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D457" s="125" t="s">
-        <v>1303</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47805,13 +47811,13 @@
         <v>1</v>
       </c>
       <c r="B458" s="125" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C458" s="125" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D458" s="125" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47819,13 +47825,13 @@
         <v>1</v>
       </c>
       <c r="B459" s="125" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C459" s="125" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D459" s="125" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47833,13 +47839,13 @@
         <v>1</v>
       </c>
       <c r="B460" s="125" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C460" s="125" t="s">
-        <v>12</v>
+        <v>1275</v>
       </c>
       <c r="D460" s="125" t="s">
-        <v>12</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47847,13 +47853,13 @@
         <v>1</v>
       </c>
       <c r="B461" s="125" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C461" s="125" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D461" s="125" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47861,13 +47867,13 @@
         <v>1</v>
       </c>
       <c r="B462" s="125" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C462" s="125" t="s">
-        <v>1278</v>
+        <v>12</v>
       </c>
       <c r="D462" s="125" t="s">
-        <v>1307</v>
+        <v>12</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47875,13 +47881,13 @@
         <v>1</v>
       </c>
       <c r="B463" s="125" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C463" s="125" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D463" s="125" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47889,13 +47895,13 @@
         <v>1</v>
       </c>
       <c r="B464" s="125" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C464" s="125" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D464" s="125" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47903,13 +47909,13 @@
         <v>1</v>
       </c>
       <c r="B465" s="125" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C465" s="125" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D465" s="125" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47917,13 +47923,13 @@
         <v>1</v>
       </c>
       <c r="B466" s="125" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C466" s="125" t="s">
-        <v>12</v>
+        <v>1280</v>
       </c>
       <c r="D466" s="125" t="s">
-        <v>12</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47931,13 +47937,13 @@
         <v>1</v>
       </c>
       <c r="B467" s="125" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C467" s="125" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D467" s="125" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47945,13 +47951,13 @@
         <v>1</v>
       </c>
       <c r="B468" s="125" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C468" s="125" t="s">
-        <v>1283</v>
+        <v>12</v>
       </c>
       <c r="D468" s="125" t="s">
-        <v>1312</v>
+        <v>12</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47959,13 +47965,13 @@
         <v>1</v>
       </c>
       <c r="B469" s="125" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C469" s="125" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D469" s="125" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47973,13 +47979,13 @@
         <v>1</v>
       </c>
       <c r="B470" s="125" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C470" s="125" t="s">
-        <v>12</v>
+        <v>1283</v>
       </c>
       <c r="D470" s="125" t="s">
-        <v>12</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -47987,13 +47993,13 @@
         <v>1</v>
       </c>
       <c r="B471" s="125" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C471" s="125" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D471" s="125" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48001,55 +48007,55 @@
         <v>1</v>
       </c>
       <c r="B472" s="125" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C472" s="125" t="s">
-        <v>1286</v>
+        <v>12</v>
       </c>
       <c r="D472" s="125" t="s">
-        <v>1315</v>
+        <v>12</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A473" s="33">
-        <v>2</v>
-      </c>
-      <c r="B473" s="145" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C473" s="145" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D473" s="145" t="s">
-        <v>1344</v>
+        <v>1</v>
+      </c>
+      <c r="B473" s="125" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C473" s="125" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D473" s="125" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A474" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B474" s="125" t="s">
-        <v>1217</v>
+        <v>1254</v>
       </c>
       <c r="C474" s="125" t="s">
-        <v>1317</v>
+        <v>1286</v>
       </c>
       <c r="D474" s="125" t="s">
-        <v>1345</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A475" s="33">
         <v>2</v>
       </c>
-      <c r="B475" s="125" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C475" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D475" s="125" t="s">
-        <v>12</v>
+      <c r="B475" s="145" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C475" s="145" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D475" s="145" t="s">
+        <v>1344</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48057,13 +48063,13 @@
         <v>2</v>
       </c>
       <c r="B476" s="125" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C476" s="125" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D476" s="125" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48071,13 +48077,13 @@
         <v>2</v>
       </c>
       <c r="B477" s="125" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C477" s="125" t="s">
-        <v>1319</v>
+        <v>12</v>
       </c>
       <c r="D477" s="125" t="s">
-        <v>1347</v>
+        <v>12</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48085,13 +48091,13 @@
         <v>2</v>
       </c>
       <c r="B478" s="125" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C478" s="125" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D478" s="125" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48099,13 +48105,13 @@
         <v>2</v>
       </c>
       <c r="B479" s="125" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C479" s="125" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D479" s="125" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48113,13 +48119,13 @@
         <v>2</v>
       </c>
       <c r="B480" s="125" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C480" s="125" t="s">
-        <v>12</v>
+        <v>1320</v>
       </c>
       <c r="D480" s="125" t="s">
-        <v>12</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48127,13 +48133,13 @@
         <v>2</v>
       </c>
       <c r="B481" s="125" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C481" s="125" t="s">
-        <v>12</v>
+        <v>1321</v>
       </c>
       <c r="D481" s="125" t="s">
-        <v>12</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48141,13 +48147,13 @@
         <v>2</v>
       </c>
       <c r="B482" s="125" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C482" s="125" t="s">
-        <v>1322</v>
+        <v>12</v>
       </c>
       <c r="D482" s="125" t="s">
-        <v>1350</v>
+        <v>12</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48155,13 +48161,13 @@
         <v>2</v>
       </c>
       <c r="B483" s="125" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C483" s="125" t="s">
-        <v>1323</v>
+        <v>12</v>
       </c>
       <c r="D483" s="125" t="s">
-        <v>1351</v>
+        <v>12</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48169,13 +48175,13 @@
         <v>2</v>
       </c>
       <c r="B484" s="125" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C484" s="125" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D484" s="125" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48183,13 +48189,13 @@
         <v>2</v>
       </c>
       <c r="B485" s="125" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C485" s="125" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D485" s="125" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48197,13 +48203,13 @@
         <v>2</v>
       </c>
       <c r="B486" s="125" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C486" s="125" t="s">
-        <v>12</v>
+        <v>1324</v>
       </c>
       <c r="D486" s="125" t="s">
-        <v>12</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48211,13 +48217,13 @@
         <v>2</v>
       </c>
       <c r="B487" s="125" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C487" s="125" t="s">
-        <v>12</v>
+        <v>1325</v>
       </c>
       <c r="D487" s="125" t="s">
-        <v>12</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48225,13 +48231,13 @@
         <v>2</v>
       </c>
       <c r="B488" s="125" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C488" s="125" t="s">
-        <v>1326</v>
+        <v>12</v>
       </c>
       <c r="D488" s="125" t="s">
-        <v>1354</v>
+        <v>12</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48239,13 +48245,13 @@
         <v>2</v>
       </c>
       <c r="B489" s="125" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C489" s="125" t="s">
-        <v>1327</v>
+        <v>12</v>
       </c>
       <c r="D489" s="125" t="s">
-        <v>1327</v>
+        <v>12</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48253,13 +48259,13 @@
         <v>2</v>
       </c>
       <c r="B490" s="125" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C490" s="125" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D490" s="125" t="s">
-        <v>1328</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48267,13 +48273,13 @@
         <v>2</v>
       </c>
       <c r="B491" s="125" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C491" s="125" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D491" s="125" t="s">
-        <v>1355</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48281,13 +48287,13 @@
         <v>2</v>
       </c>
       <c r="B492" s="125" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C492" s="125" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D492" s="125" t="s">
-        <v>1356</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48295,13 +48301,13 @@
         <v>2</v>
       </c>
       <c r="B493" s="125" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C493" s="125" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D493" s="125" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48309,13 +48315,13 @@
         <v>2</v>
       </c>
       <c r="B494" s="125" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C494" s="125" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D494" s="125" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48323,13 +48329,13 @@
         <v>2</v>
       </c>
       <c r="B495" s="125" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C495" s="125" t="s">
-        <v>12</v>
+        <v>1331</v>
       </c>
       <c r="D495" s="125" t="s">
-        <v>12</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48337,13 +48343,13 @@
         <v>2</v>
       </c>
       <c r="B496" s="125" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C496" s="125" t="s">
-        <v>12</v>
+        <v>1332</v>
       </c>
       <c r="D496" s="125" t="s">
-        <v>12</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48351,7 +48357,7 @@
         <v>2</v>
       </c>
       <c r="B497" s="125" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C497" s="125" t="s">
         <v>12</v>
@@ -48365,13 +48371,13 @@
         <v>2</v>
       </c>
       <c r="B498" s="125" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C498" s="125" t="s">
-        <v>1333</v>
+        <v>12</v>
       </c>
       <c r="D498" s="125" t="s">
-        <v>1359</v>
+        <v>12</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48379,7 +48385,7 @@
         <v>2</v>
       </c>
       <c r="B499" s="125" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C499" s="125" t="s">
         <v>12</v>
@@ -48393,13 +48399,13 @@
         <v>2</v>
       </c>
       <c r="B500" s="125" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C500" s="125" t="s">
-        <v>12</v>
+        <v>1333</v>
       </c>
       <c r="D500" s="125" t="s">
-        <v>12</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48407,13 +48413,13 @@
         <v>2</v>
       </c>
       <c r="B501" s="125" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C501" s="125" t="s">
-        <v>1334</v>
+        <v>12</v>
       </c>
       <c r="D501" s="125" t="s">
-        <v>1360</v>
+        <v>12</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48421,13 +48427,13 @@
         <v>2</v>
       </c>
       <c r="B502" s="125" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C502" s="125" t="s">
-        <v>1335</v>
+        <v>12</v>
       </c>
       <c r="D502" s="125" t="s">
-        <v>1361</v>
+        <v>12</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48435,13 +48441,13 @@
         <v>2</v>
       </c>
       <c r="B503" s="125" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C503" s="125" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D503" s="125" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48449,13 +48455,13 @@
         <v>2</v>
       </c>
       <c r="B504" s="125" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C504" s="125" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="D504" s="125" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48463,13 +48469,13 @@
         <v>2</v>
       </c>
       <c r="B505" s="125" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C505" s="125" t="s">
-        <v>12</v>
+        <v>1336</v>
       </c>
       <c r="D505" s="125" t="s">
-        <v>12</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="506" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48477,13 +48483,13 @@
         <v>2</v>
       </c>
       <c r="B506" s="125" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C506" s="125" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D506" s="125" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48491,13 +48497,13 @@
         <v>2</v>
       </c>
       <c r="B507" s="125" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C507" s="125" t="s">
-        <v>1339</v>
+        <v>12</v>
       </c>
       <c r="D507" s="125" t="s">
-        <v>1365</v>
+        <v>12</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48505,13 +48511,13 @@
         <v>2</v>
       </c>
       <c r="B508" s="125" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C508" s="125" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D508" s="125" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="509" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48519,13 +48525,13 @@
         <v>2</v>
       </c>
       <c r="B509" s="125" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C509" s="125" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="D509" s="125" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48533,13 +48539,13 @@
         <v>2</v>
       </c>
       <c r="B510" s="125" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C510" s="125" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D510" s="125" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48547,55 +48553,55 @@
         <v>2</v>
       </c>
       <c r="B511" s="125" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C511" s="125" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D511" s="125" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="512" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A512" s="33">
-        <v>3</v>
-      </c>
-      <c r="B512" s="145" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C512" s="145" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D512" s="145" t="s">
-        <v>1401</v>
+        <v>2</v>
+      </c>
+      <c r="B512" s="125" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C512" s="125" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D512" s="125" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="513" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A513" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B513" s="125" t="s">
-        <v>1217</v>
+        <v>1254</v>
       </c>
       <c r="C513" s="125" t="s">
-        <v>12</v>
+        <v>1343</v>
       </c>
       <c r="D513" s="125" t="s">
-        <v>12</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="514" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A514" s="33">
         <v>3</v>
       </c>
-      <c r="B514" s="125" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C514" s="125" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D514" s="125" t="s">
-        <v>1402</v>
+      <c r="B514" s="145" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C514" s="145" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D514" s="145" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="515" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48603,13 +48609,13 @@
         <v>3</v>
       </c>
       <c r="B515" s="125" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C515" s="125" t="s">
-        <v>1372</v>
+        <v>12</v>
       </c>
       <c r="D515" s="125" t="s">
-        <v>1403</v>
+        <v>12</v>
       </c>
     </row>
     <row r="516" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48617,13 +48623,13 @@
         <v>3</v>
       </c>
       <c r="B516" s="125" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C516" s="125" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D516" s="125" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48631,13 +48637,13 @@
         <v>3</v>
       </c>
       <c r="B517" s="125" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C517" s="125" t="s">
-        <v>12</v>
+        <v>1372</v>
       </c>
       <c r="D517" s="125" t="s">
-        <v>12</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="518" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48645,13 +48651,13 @@
         <v>3</v>
       </c>
       <c r="B518" s="125" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C518" s="125" t="s">
-        <v>12</v>
+        <v>1373</v>
       </c>
       <c r="D518" s="125" t="s">
-        <v>12</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="519" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48659,13 +48665,13 @@
         <v>3</v>
       </c>
       <c r="B519" s="125" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C519" s="125" t="s">
-        <v>1374</v>
+        <v>12</v>
       </c>
       <c r="D519" s="125" t="s">
-        <v>1405</v>
+        <v>12</v>
       </c>
     </row>
     <row r="520" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48673,13 +48679,13 @@
         <v>3</v>
       </c>
       <c r="B520" s="125" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C520" s="125" t="s">
-        <v>1375</v>
+        <v>12</v>
       </c>
       <c r="D520" s="125" t="s">
-        <v>1406</v>
+        <v>12</v>
       </c>
     </row>
     <row r="521" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48687,13 +48693,13 @@
         <v>3</v>
       </c>
       <c r="B521" s="125" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C521" s="125" t="s">
-        <v>12</v>
+        <v>1374</v>
       </c>
       <c r="D521" s="125" t="s">
-        <v>12</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="522" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48701,13 +48707,13 @@
         <v>3</v>
       </c>
       <c r="B522" s="125" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C522" s="125" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D522" s="125" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48715,13 +48721,13 @@
         <v>3</v>
       </c>
       <c r="B523" s="125" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C523" s="125" t="s">
-        <v>1377</v>
+        <v>12</v>
       </c>
       <c r="D523" s="125" t="s">
-        <v>1408</v>
+        <v>12</v>
       </c>
     </row>
     <row r="524" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48729,13 +48735,13 @@
         <v>3</v>
       </c>
       <c r="B524" s="125" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C524" s="125" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D524" s="125" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48743,13 +48749,13 @@
         <v>3</v>
       </c>
       <c r="B525" s="125" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C525" s="125" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D525" s="125" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="526" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48757,13 +48763,13 @@
         <v>3</v>
       </c>
       <c r="B526" s="125" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C526" s="125" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D526" s="125" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="527" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48771,13 +48777,13 @@
         <v>3</v>
       </c>
       <c r="B527" s="125" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C527" s="125" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D527" s="125" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="528" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48785,13 +48791,13 @@
         <v>3</v>
       </c>
       <c r="B528" s="125" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C528" s="125" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="D528" s="125" t="s">
-        <v>1232</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48799,13 +48805,13 @@
         <v>3</v>
       </c>
       <c r="B529" s="125" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C529" s="125" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="D529" s="125" t="s">
-        <v>1233</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="530" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48813,13 +48819,13 @@
         <v>3</v>
       </c>
       <c r="B530" s="125" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C530" s="125" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="D530" s="125" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48827,13 +48833,13 @@
         <v>3</v>
       </c>
       <c r="B531" s="125" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C531" s="125" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D531" s="125" t="s">
-        <v>1413</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="532" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48841,13 +48847,13 @@
         <v>3</v>
       </c>
       <c r="B532" s="125" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C532" s="125" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D532" s="125" t="s">
-        <v>1414</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="533" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48855,13 +48861,13 @@
         <v>3</v>
       </c>
       <c r="B533" s="125" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C533" s="125" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D533" s="125" t="s">
-        <v>1237</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="534" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48869,13 +48875,13 @@
         <v>3</v>
       </c>
       <c r="B534" s="125" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C534" s="125" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="D534" s="125" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="535" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48883,13 +48889,13 @@
         <v>3</v>
       </c>
       <c r="B535" s="125" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C535" s="125" t="s">
-        <v>12</v>
+        <v>1387</v>
       </c>
       <c r="D535" s="125" t="s">
-        <v>12</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="536" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48897,13 +48903,13 @@
         <v>3</v>
       </c>
       <c r="B536" s="125" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C536" s="125" t="s">
-        <v>12</v>
+        <v>1388</v>
       </c>
       <c r="D536" s="125" t="s">
-        <v>12</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48911,13 +48917,13 @@
         <v>3</v>
       </c>
       <c r="B537" s="125" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C537" s="125" t="s">
-        <v>1389</v>
+        <v>12</v>
       </c>
       <c r="D537" s="125" t="s">
-        <v>1416</v>
+        <v>12</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48925,13 +48931,13 @@
         <v>3</v>
       </c>
       <c r="B538" s="125" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C538" s="125" t="s">
-        <v>1390</v>
+        <v>12</v>
       </c>
       <c r="D538" s="125" t="s">
-        <v>1417</v>
+        <v>12</v>
       </c>
     </row>
     <row r="539" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48939,13 +48945,13 @@
         <v>3</v>
       </c>
       <c r="B539" s="125" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C539" s="125" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D539" s="125" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48953,13 +48959,13 @@
         <v>3</v>
       </c>
       <c r="B540" s="125" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C540" s="125" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="D540" s="125" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="541" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48967,13 +48973,13 @@
         <v>3</v>
       </c>
       <c r="B541" s="125" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C541" s="125" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D541" s="125" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="542" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48981,13 +48987,13 @@
         <v>3</v>
       </c>
       <c r="B542" s="125" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C542" s="125" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="D542" s="125" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="543" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -48995,13 +49001,13 @@
         <v>3</v>
       </c>
       <c r="B543" s="125" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C543" s="125" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D543" s="125" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49009,13 +49015,13 @@
         <v>3</v>
       </c>
       <c r="B544" s="125" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C544" s="125" t="s">
-        <v>12</v>
+        <v>1394</v>
       </c>
       <c r="D544" s="125" t="s">
-        <v>12</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="545" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49023,13 +49029,13 @@
         <v>3</v>
       </c>
       <c r="B545" s="125" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C545" s="125" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D545" s="125" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="546" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49037,7 +49043,7 @@
         <v>3</v>
       </c>
       <c r="B546" s="125" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C546" s="125" t="s">
         <v>12</v>
@@ -49051,13 +49057,13 @@
         <v>3</v>
       </c>
       <c r="B547" s="125" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C547" s="125" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D547" s="125" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="548" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49065,13 +49071,13 @@
         <v>3</v>
       </c>
       <c r="B548" s="125" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C548" s="125" t="s">
-        <v>1398</v>
+        <v>12</v>
       </c>
       <c r="D548" s="125" t="s">
-        <v>1425</v>
+        <v>12</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49079,13 +49085,13 @@
         <v>3</v>
       </c>
       <c r="B549" s="125" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C549" s="125" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D549" s="125" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="550" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49093,55 +49099,55 @@
         <v>3</v>
       </c>
       <c r="B550" s="125" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C550" s="125" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D550" s="125" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A551" s="33">
-        <v>4</v>
-      </c>
-      <c r="B551" s="145" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C551" s="145" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D551" s="145" t="s">
-        <v>1465</v>
+        <v>3</v>
+      </c>
+      <c r="B551" s="125" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C551" s="125" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D551" s="125" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="552" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A552" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B552" s="125" t="s">
-        <v>1217</v>
+        <v>1254</v>
       </c>
       <c r="C552" s="125" t="s">
-        <v>1429</v>
+        <v>1400</v>
       </c>
       <c r="D552" s="125" t="s">
-        <v>1466</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="553" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A553" s="33">
         <v>4</v>
       </c>
-      <c r="B553" s="125" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C553" s="125" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D553" s="125" t="s">
-        <v>1467</v>
+      <c r="B553" s="145" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C553" s="145" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D553" s="145" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="554" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49149,13 +49155,13 @@
         <v>4</v>
       </c>
       <c r="B554" s="125" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C554" s="125" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D554" s="125" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="555" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49163,13 +49169,13 @@
         <v>4</v>
       </c>
       <c r="B555" s="125" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C555" s="125" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D555" s="125" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="556" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49177,13 +49183,13 @@
         <v>4</v>
       </c>
       <c r="B556" s="125" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C556" s="125" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="D556" s="125" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="557" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49191,13 +49197,13 @@
         <v>4</v>
       </c>
       <c r="B557" s="125" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C557" s="125" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="D557" s="125" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49205,13 +49211,13 @@
         <v>4</v>
       </c>
       <c r="B558" s="125" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C558" s="125" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="D558" s="125" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49219,13 +49225,13 @@
         <v>4</v>
       </c>
       <c r="B559" s="125" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C559" s="125" t="s">
-        <v>12</v>
+        <v>1434</v>
       </c>
       <c r="D559" s="125" t="s">
-        <v>12</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="560" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49233,13 +49239,13 @@
         <v>4</v>
       </c>
       <c r="B560" s="125" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C560" s="125" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D560" s="125" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49247,13 +49253,13 @@
         <v>4</v>
       </c>
       <c r="B561" s="125" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C561" s="125" t="s">
-        <v>1437</v>
+        <v>12</v>
       </c>
       <c r="D561" s="125" t="s">
-        <v>1474</v>
+        <v>12</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49261,13 +49267,13 @@
         <v>4</v>
       </c>
       <c r="B562" s="125" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C562" s="125" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="D562" s="125" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49275,13 +49281,13 @@
         <v>4</v>
       </c>
       <c r="B563" s="125" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C563" s="125" t="s">
-        <v>12</v>
+        <v>1437</v>
       </c>
       <c r="D563" s="125" t="s">
-        <v>12</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="564" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49289,13 +49295,13 @@
         <v>4</v>
       </c>
       <c r="B564" s="125" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C564" s="125" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D564" s="125" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="565" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49303,13 +49309,13 @@
         <v>4</v>
       </c>
       <c r="B565" s="125" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C565" s="125" t="s">
-        <v>1440</v>
+        <v>12</v>
       </c>
       <c r="D565" s="125" t="s">
-        <v>1477</v>
+        <v>12</v>
       </c>
     </row>
     <row r="566" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49317,13 +49323,13 @@
         <v>4</v>
       </c>
       <c r="B566" s="125" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C566" s="125" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D566" s="125" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49331,13 +49337,13 @@
         <v>4</v>
       </c>
       <c r="B567" s="125" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C567" s="125" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D567" s="125" t="s">
-        <v>1442</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="568" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49345,13 +49351,13 @@
         <v>4</v>
       </c>
       <c r="B568" s="125" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C568" s="125" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="D568" s="125" t="s">
-        <v>1443</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="569" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49359,13 +49365,13 @@
         <v>4</v>
       </c>
       <c r="B569" s="125" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C569" s="125" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D569" s="125" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="570" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49373,13 +49379,13 @@
         <v>4</v>
       </c>
       <c r="B570" s="125" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C570" s="125" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="D570" s="125" t="s">
-        <v>1479</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="571" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49387,13 +49393,13 @@
         <v>4</v>
       </c>
       <c r="B571" s="125" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C571" s="125" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D571" s="125" t="s">
-        <v>1480</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="572" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49401,13 +49407,13 @@
         <v>4</v>
       </c>
       <c r="B572" s="125" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C572" s="125" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D572" s="125" t="s">
-        <v>1447</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49415,13 +49421,13 @@
         <v>4</v>
       </c>
       <c r="B573" s="125" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C573" s="125" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="D573" s="125" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49429,13 +49435,13 @@
         <v>4</v>
       </c>
       <c r="B574" s="125" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C574" s="125" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D574" s="125" t="s">
-        <v>1482</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49443,13 +49449,13 @@
         <v>4</v>
       </c>
       <c r="B575" s="125" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C575" s="125" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D575" s="125" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49457,13 +49463,13 @@
         <v>4</v>
       </c>
       <c r="B576" s="125" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C576" s="125" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D576" s="125" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49471,13 +49477,13 @@
         <v>4</v>
       </c>
       <c r="B577" s="125" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C577" s="125" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D577" s="125" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="578" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49485,13 +49491,13 @@
         <v>4</v>
       </c>
       <c r="B578" s="125" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C578" s="125" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D578" s="125" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="579" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49499,13 +49505,13 @@
         <v>4</v>
       </c>
       <c r="B579" s="125" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C579" s="125" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D579" s="125" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="580" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49513,13 +49519,13 @@
         <v>4</v>
       </c>
       <c r="B580" s="125" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C580" s="125" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D580" s="125" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="581" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49527,13 +49533,13 @@
         <v>4</v>
       </c>
       <c r="B581" s="125" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C581" s="125" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D581" s="125" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="582" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49541,13 +49547,13 @@
         <v>4</v>
       </c>
       <c r="B582" s="125" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C582" s="125" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D582" s="125" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="583" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49555,13 +49561,13 @@
         <v>4</v>
       </c>
       <c r="B583" s="125" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C583" s="125" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D583" s="125" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49569,13 +49575,13 @@
         <v>4</v>
       </c>
       <c r="B584" s="125" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C584" s="125" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D584" s="125" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49583,13 +49589,13 @@
         <v>4</v>
       </c>
       <c r="B585" s="125" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C585" s="125" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D585" s="125" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49597,13 +49603,13 @@
         <v>4</v>
       </c>
       <c r="B586" s="125" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C586" s="125" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D586" s="125" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="587" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49611,13 +49617,13 @@
         <v>4</v>
       </c>
       <c r="B587" s="125" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C587" s="125" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D587" s="125" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="588" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49625,13 +49631,13 @@
         <v>4</v>
       </c>
       <c r="B588" s="125" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C588" s="125" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D588" s="125" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="589" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49639,55 +49645,55 @@
         <v>4</v>
       </c>
       <c r="B589" s="125" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C589" s="125" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D589" s="125" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="590" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A590" s="33">
-        <v>5</v>
-      </c>
-      <c r="B590" s="145" t="s">
-        <v>1216</v>
+        <v>4</v>
+      </c>
+      <c r="B590" s="125" t="s">
+        <v>1253</v>
       </c>
       <c r="C590" s="125" t="s">
-        <v>12</v>
+        <v>1463</v>
       </c>
       <c r="D590" s="125" t="s">
-        <v>12</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="591" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A591" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B591" s="125" t="s">
-        <v>1217</v>
+        <v>1254</v>
       </c>
       <c r="C591" s="125" t="s">
-        <v>1498</v>
+        <v>1464</v>
       </c>
       <c r="D591" s="125" t="s">
-        <v>1526</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A592" s="33">
         <v>5</v>
       </c>
-      <c r="B592" s="125" t="s">
-        <v>1218</v>
+      <c r="B592" s="145" t="s">
+        <v>1216</v>
       </c>
       <c r="C592" s="125" t="s">
-        <v>1499</v>
+        <v>12</v>
       </c>
       <c r="D592" s="125" t="s">
-        <v>1527</v>
+        <v>12</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49695,13 +49701,13 @@
         <v>5</v>
       </c>
       <c r="B593" s="125" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C593" s="125" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="D593" s="125" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="594" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49709,13 +49715,13 @@
         <v>5</v>
       </c>
       <c r="B594" s="125" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C594" s="125" t="s">
-        <v>12</v>
+        <v>1499</v>
       </c>
       <c r="D594" s="125" t="s">
-        <v>12</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="595" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49723,13 +49729,13 @@
         <v>5</v>
       </c>
       <c r="B595" s="125" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C595" s="125" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D595" s="125" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="596" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49737,13 +49743,13 @@
         <v>5</v>
       </c>
       <c r="B596" s="125" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C596" s="125" t="s">
-        <v>1502</v>
+        <v>12</v>
       </c>
       <c r="D596" s="125" t="s">
-        <v>1530</v>
+        <v>12</v>
       </c>
     </row>
     <row r="597" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49751,13 +49757,13 @@
         <v>5</v>
       </c>
       <c r="B597" s="125" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C597" s="125" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="D597" s="125" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="598" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49765,13 +49771,13 @@
         <v>5</v>
       </c>
       <c r="B598" s="125" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C598" s="125" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="D598" s="125" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="599" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49779,13 +49785,13 @@
         <v>5</v>
       </c>
       <c r="B599" s="125" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C599" s="125" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="D599" s="125" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49793,13 +49799,13 @@
         <v>5</v>
       </c>
       <c r="B600" s="125" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C600" s="125" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D600" s="125" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49807,13 +49813,13 @@
         <v>5</v>
       </c>
       <c r="B601" s="125" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C601" s="125" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="D601" s="125" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="602" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49821,13 +49827,13 @@
         <v>5</v>
       </c>
       <c r="B602" s="125" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C602" s="125" t="s">
-        <v>12</v>
+        <v>1506</v>
       </c>
       <c r="D602" s="125" t="s">
-        <v>12</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="603" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49835,13 +49841,13 @@
         <v>5</v>
       </c>
       <c r="B603" s="125" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C603" s="125" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D603" s="125" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="604" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49849,7 +49855,7 @@
         <v>5</v>
       </c>
       <c r="B604" s="125" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C604" s="125" t="s">
         <v>12</v>
@@ -49863,13 +49869,13 @@
         <v>5</v>
       </c>
       <c r="B605" s="125" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C605" s="125" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D605" s="125" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="606" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49877,7 +49883,7 @@
         <v>5</v>
       </c>
       <c r="B606" s="125" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C606" s="125" t="s">
         <v>12</v>
@@ -49891,13 +49897,13 @@
         <v>5</v>
       </c>
       <c r="B607" s="125" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C607" s="125" t="s">
-        <v>12</v>
+        <v>1509</v>
       </c>
       <c r="D607" s="125" t="s">
-        <v>12</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="608" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49905,7 +49911,7 @@
         <v>5</v>
       </c>
       <c r="B608" s="125" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C608" s="125" t="s">
         <v>12</v>
@@ -49919,13 +49925,13 @@
         <v>5</v>
       </c>
       <c r="B609" s="125" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C609" s="125" t="s">
-        <v>1510</v>
+        <v>12</v>
       </c>
       <c r="D609" s="125" t="s">
-        <v>1538</v>
+        <v>12</v>
       </c>
     </row>
     <row r="610" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49933,7 +49939,7 @@
         <v>5</v>
       </c>
       <c r="B610" s="125" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C610" s="125" t="s">
         <v>12</v>
@@ -49947,13 +49953,13 @@
         <v>5</v>
       </c>
       <c r="B611" s="125" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C611" s="125" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D611" s="125" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="612" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49961,13 +49967,13 @@
         <v>5</v>
       </c>
       <c r="B612" s="125" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C612" s="125" t="s">
-        <v>1512</v>
+        <v>12</v>
       </c>
       <c r="D612" s="125" t="s">
-        <v>1540</v>
+        <v>12</v>
       </c>
     </row>
     <row r="613" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49975,13 +49981,13 @@
         <v>5</v>
       </c>
       <c r="B613" s="125" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C613" s="125" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="D613" s="125" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="614" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -49989,13 +49995,13 @@
         <v>5</v>
       </c>
       <c r="B614" s="125" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C614" s="125" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="D614" s="125" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="615" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50003,13 +50009,13 @@
         <v>5</v>
       </c>
       <c r="B615" s="125" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C615" s="125" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="D615" s="125" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="616" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50017,13 +50023,13 @@
         <v>5</v>
       </c>
       <c r="B616" s="125" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C616" s="125" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="D616" s="125" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="617" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50031,13 +50037,13 @@
         <v>5</v>
       </c>
       <c r="B617" s="125" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C617" s="125" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="D617" s="125" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="618" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50045,13 +50051,13 @@
         <v>5</v>
       </c>
       <c r="B618" s="125" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C618" s="125" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="D618" s="125" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="619" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50059,13 +50065,13 @@
         <v>5</v>
       </c>
       <c r="B619" s="125" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C619" s="125" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="D619" s="125" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="620" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50073,13 +50079,13 @@
         <v>5</v>
       </c>
       <c r="B620" s="125" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C620" s="125" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="D620" s="125" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="621" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50087,13 +50093,13 @@
         <v>5</v>
       </c>
       <c r="B621" s="125" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C621" s="125" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="D621" s="125" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="622" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50101,13 +50107,13 @@
         <v>5</v>
       </c>
       <c r="B622" s="125" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C622" s="125" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="D622" s="125" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="623" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50115,13 +50121,13 @@
         <v>5</v>
       </c>
       <c r="B623" s="125" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C623" s="125" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="D623" s="125" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="624" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50129,13 +50135,13 @@
         <v>5</v>
       </c>
       <c r="B624" s="125" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C624" s="125" t="s">
-        <v>12</v>
+        <v>1522</v>
       </c>
       <c r="D624" s="125" t="s">
-        <v>12</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50143,13 +50149,13 @@
         <v>5</v>
       </c>
       <c r="B625" s="125" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C625" s="125" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D625" s="125" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50157,7 +50163,7 @@
         <v>5</v>
       </c>
       <c r="B626" s="125" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C626" s="125" t="s">
         <v>12</v>
@@ -50171,13 +50177,13 @@
         <v>5</v>
       </c>
       <c r="B627" s="125" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C627" s="125" t="s">
-        <v>12</v>
+        <v>1524</v>
       </c>
       <c r="D627" s="125" t="s">
-        <v>12</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50185,55 +50191,55 @@
         <v>5</v>
       </c>
       <c r="B628" s="125" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C628" s="125" t="s">
-        <v>1525</v>
+        <v>12</v>
       </c>
       <c r="D628" s="125" t="s">
-        <v>1553</v>
+        <v>12</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A629" s="33">
-        <v>6</v>
-      </c>
-      <c r="B629" s="145" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C629" s="145" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D629" s="145" t="s">
-        <v>1585</v>
+        <v>5</v>
+      </c>
+      <c r="B629" s="125" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C629" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D629" s="125" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="630" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A630" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B630" s="125" t="s">
-        <v>1217</v>
+        <v>1254</v>
       </c>
       <c r="C630" s="125" t="s">
-        <v>1555</v>
+        <v>1525</v>
       </c>
       <c r="D630" s="125" t="s">
-        <v>1586</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A631" s="33">
         <v>6</v>
       </c>
-      <c r="B631" s="125" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C631" s="125" t="s">
-        <v>1556</v>
-      </c>
-      <c r="D631" s="125" t="s">
-        <v>1587</v>
+      <c r="B631" s="145" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C631" s="145" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D631" s="145" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="632" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50241,13 +50247,13 @@
         <v>6</v>
       </c>
       <c r="B632" s="125" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C632" s="125" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D632" s="125" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50255,13 +50261,13 @@
         <v>6</v>
       </c>
       <c r="B633" s="125" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C633" s="125" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D633" s="125" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="634" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50269,13 +50275,13 @@
         <v>6</v>
       </c>
       <c r="B634" s="125" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C634" s="125" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D634" s="125" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="635" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50283,13 +50289,13 @@
         <v>6</v>
       </c>
       <c r="B635" s="125" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C635" s="125" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D635" s="125" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="636" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50297,13 +50303,13 @@
         <v>6</v>
       </c>
       <c r="B636" s="125" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C636" s="125" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="D636" s="125" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="637" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50311,13 +50317,13 @@
         <v>6</v>
       </c>
       <c r="B637" s="125" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C637" s="125" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D637" s="125" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="638" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50325,13 +50331,13 @@
         <v>6</v>
       </c>
       <c r="B638" s="125" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C638" s="125" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D638" s="125" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="639" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50339,13 +50345,13 @@
         <v>6</v>
       </c>
       <c r="B639" s="125" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C639" s="125" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D639" s="125" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="640" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50353,13 +50359,13 @@
         <v>6</v>
       </c>
       <c r="B640" s="125" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C640" s="125" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D640" s="125" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="641" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50367,13 +50373,13 @@
         <v>6</v>
       </c>
       <c r="B641" s="125" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C641" s="125" t="s">
-        <v>12</v>
+        <v>1564</v>
       </c>
       <c r="D641" s="125" t="s">
-        <v>12</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="642" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50381,13 +50387,13 @@
         <v>6</v>
       </c>
       <c r="B642" s="125" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C642" s="125" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D642" s="125" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="643" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50395,13 +50401,13 @@
         <v>6</v>
       </c>
       <c r="B643" s="125" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C643" s="125" t="s">
-        <v>1567</v>
+        <v>12</v>
       </c>
       <c r="D643" s="125" t="s">
-        <v>1598</v>
+        <v>12</v>
       </c>
     </row>
     <row r="644" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50409,13 +50415,13 @@
         <v>6</v>
       </c>
       <c r="B644" s="125" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C644" s="125" t="s">
-        <v>12</v>
+        <v>1566</v>
       </c>
       <c r="D644" s="125" t="s">
-        <v>12</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="645" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50423,13 +50429,13 @@
         <v>6</v>
       </c>
       <c r="B645" s="125" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C645" s="125" t="s">
-        <v>12</v>
+        <v>1567</v>
       </c>
       <c r="D645" s="125" t="s">
-        <v>12</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="646" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50437,7 +50443,7 @@
         <v>6</v>
       </c>
       <c r="B646" s="125" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C646" s="125" t="s">
         <v>12</v>
@@ -50451,13 +50457,13 @@
         <v>6</v>
       </c>
       <c r="B647" s="125" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C647" s="125" t="s">
-        <v>1568</v>
+        <v>12</v>
       </c>
       <c r="D647" s="125" t="s">
-        <v>1599</v>
+        <v>12</v>
       </c>
     </row>
     <row r="648" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50465,13 +50471,13 @@
         <v>6</v>
       </c>
       <c r="B648" s="125" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C648" s="125" t="s">
-        <v>1569</v>
+        <v>12</v>
       </c>
       <c r="D648" s="125" t="s">
-        <v>1600</v>
+        <v>12</v>
       </c>
     </row>
     <row r="649" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50479,13 +50485,13 @@
         <v>6</v>
       </c>
       <c r="B649" s="125" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C649" s="125" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D649" s="125" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="650" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50493,13 +50499,13 @@
         <v>6</v>
       </c>
       <c r="B650" s="125" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C650" s="125" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D650" s="125" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="651" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50507,13 +50513,13 @@
         <v>6</v>
       </c>
       <c r="B651" s="125" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C651" s="125" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D651" s="125" t="s">
-        <v>1572</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="652" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50521,13 +50527,13 @@
         <v>6</v>
       </c>
       <c r="B652" s="125" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C652" s="125" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D652" s="125" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="653" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50535,13 +50541,13 @@
         <v>6</v>
       </c>
       <c r="B653" s="125" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C653" s="125" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="D653" s="125" t="s">
-        <v>1604</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="654" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50549,13 +50555,13 @@
         <v>6</v>
       </c>
       <c r="B654" s="125" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C654" s="125" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D654" s="125" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="655" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50563,13 +50569,13 @@
         <v>6</v>
       </c>
       <c r="B655" s="125" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C655" s="125" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="D655" s="125" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="656" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50577,13 +50583,13 @@
         <v>6</v>
       </c>
       <c r="B656" s="125" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C656" s="125" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="D656" s="125" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="657" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50591,13 +50597,13 @@
         <v>6</v>
       </c>
       <c r="B657" s="125" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C657" s="125" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D657" s="125" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="658" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50605,13 +50611,13 @@
         <v>6</v>
       </c>
       <c r="B658" s="125" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C658" s="125" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D658" s="125" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="659" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50619,13 +50625,13 @@
         <v>6</v>
       </c>
       <c r="B659" s="125" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C659" s="125" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D659" s="125" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="660" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50633,13 +50639,13 @@
         <v>6</v>
       </c>
       <c r="B660" s="125" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C660" s="125" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D660" s="125" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="661" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50647,13 +50653,13 @@
         <v>6</v>
       </c>
       <c r="B661" s="125" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C661" s="125" t="s">
-        <v>12</v>
+        <v>1580</v>
       </c>
       <c r="D661" s="125" t="s">
-        <v>12</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="662" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50661,13 +50667,13 @@
         <v>6</v>
       </c>
       <c r="B662" s="125" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C662" s="125" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D662" s="125" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="663" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50675,7 +50681,7 @@
         <v>6</v>
       </c>
       <c r="B663" s="125" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C663" s="125" t="s">
         <v>12</v>
@@ -50689,13 +50695,13 @@
         <v>6</v>
       </c>
       <c r="B664" s="125" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C664" s="125" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D664" s="125" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="665" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50703,7 +50709,7 @@
         <v>6</v>
       </c>
       <c r="B665" s="125" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C665" s="125" t="s">
         <v>12</v>
@@ -50717,13 +50723,13 @@
         <v>6</v>
       </c>
       <c r="B666" s="125" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C666" s="125" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D666" s="125" t="s">
-        <v>1426</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="667" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50731,7 +50737,7 @@
         <v>6</v>
       </c>
       <c r="B667" s="125" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C667" s="125" t="s">
         <v>12</v>
@@ -50742,44 +50748,44 @@
     </row>
     <row r="668" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A668" s="33">
-        <v>7</v>
-      </c>
-      <c r="B668" s="145" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C668" s="145" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D668" s="145" t="s">
-        <v>1653</v>
+        <v>6</v>
+      </c>
+      <c r="B668" s="125" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C668" s="125" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D668" s="125" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="669" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A669" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B669" s="125" t="s">
-        <v>1217</v>
+        <v>1254</v>
       </c>
       <c r="C669" s="125" t="s">
-        <v>1615</v>
+        <v>12</v>
       </c>
       <c r="D669" s="125" t="s">
-        <v>1654</v>
+        <v>12</v>
       </c>
     </row>
     <row r="670" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A670" s="33">
         <v>7</v>
       </c>
-      <c r="B670" s="125" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C670" s="125" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D670" s="125" t="s">
-        <v>1655</v>
+      <c r="B670" s="145" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C670" s="145" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D670" s="145" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="671" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50787,13 +50793,13 @@
         <v>7</v>
       </c>
       <c r="B671" s="125" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C671" s="125" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D671" s="125" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="672" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50801,13 +50807,13 @@
         <v>7</v>
       </c>
       <c r="B672" s="125" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C672" s="125" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D672" s="125" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="673" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50815,13 +50821,13 @@
         <v>7</v>
       </c>
       <c r="B673" s="125" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C673" s="125" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D673" s="125" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="674" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50829,13 +50835,13 @@
         <v>7</v>
       </c>
       <c r="B674" s="125" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C674" s="125" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D674" s="125" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="675" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50843,13 +50849,13 @@
         <v>7</v>
       </c>
       <c r="B675" s="125" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C675" s="125" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D675" s="125" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="676" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50857,13 +50863,13 @@
         <v>7</v>
       </c>
       <c r="B676" s="125" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C676" s="125" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D676" s="125" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="677" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50871,13 +50877,13 @@
         <v>7</v>
       </c>
       <c r="B677" s="125" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C677" s="125" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D677" s="125" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="678" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50885,13 +50891,13 @@
         <v>7</v>
       </c>
       <c r="B678" s="125" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C678" s="125" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D678" s="125" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="679" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50899,13 +50905,13 @@
         <v>7</v>
       </c>
       <c r="B679" s="125" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C679" s="125" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D679" s="125" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="680" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50913,13 +50919,13 @@
         <v>7</v>
       </c>
       <c r="B680" s="125" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C680" s="125" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="D680" s="125" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="681" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50927,13 +50933,13 @@
         <v>7</v>
       </c>
       <c r="B681" s="125" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C681" s="125" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D681" s="125" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="682" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50941,13 +50947,13 @@
         <v>7</v>
       </c>
       <c r="B682" s="125" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C682" s="125" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="D682" s="125" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="683" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50955,13 +50961,13 @@
         <v>7</v>
       </c>
       <c r="B683" s="125" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C683" s="125" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D683" s="125" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="684" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50969,13 +50975,13 @@
         <v>7</v>
       </c>
       <c r="B684" s="125" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C684" s="125" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D684" s="125" t="s">
-        <v>1630</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="685" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50983,13 +50989,13 @@
         <v>7</v>
       </c>
       <c r="B685" s="125" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C685" s="125" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D685" s="125" t="s">
-        <v>1631</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="686" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -50997,13 +51003,13 @@
         <v>7</v>
       </c>
       <c r="B686" s="125" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C686" s="125" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="D686" s="125" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="687" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51011,13 +51017,13 @@
         <v>7</v>
       </c>
       <c r="B687" s="125" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C687" s="125" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D687" s="125" t="s">
-        <v>1669</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="688" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51025,13 +51031,13 @@
         <v>7</v>
       </c>
       <c r="B688" s="125" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C688" s="125" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D688" s="125" t="s">
-        <v>1670</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="689" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51039,13 +51045,13 @@
         <v>7</v>
       </c>
       <c r="B689" s="125" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C689" s="125" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D689" s="125" t="s">
-        <v>1635</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="690" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51053,13 +51059,13 @@
         <v>7</v>
       </c>
       <c r="B690" s="125" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C690" s="125" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D690" s="125" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="691" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51067,13 +51073,13 @@
         <v>7</v>
       </c>
       <c r="B691" s="125" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C691" s="125" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="D691" s="125" t="s">
-        <v>1672</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="692" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51081,13 +51087,13 @@
         <v>7</v>
       </c>
       <c r="B692" s="125" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C692" s="125" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D692" s="125" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="693" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51095,13 +51101,13 @@
         <v>7</v>
       </c>
       <c r="B693" s="125" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C693" s="125" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D693" s="125" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="694" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51109,13 +51115,13 @@
         <v>7</v>
       </c>
       <c r="B694" s="125" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C694" s="125" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D694" s="125" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="695" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51123,13 +51129,13 @@
         <v>7</v>
       </c>
       <c r="B695" s="125" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C695" s="125" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D695" s="125" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="696" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51137,13 +51143,13 @@
         <v>7</v>
       </c>
       <c r="B696" s="125" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C696" s="125" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D696" s="125" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="697" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51151,13 +51157,13 @@
         <v>7</v>
       </c>
       <c r="B697" s="125" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C697" s="125" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="D697" s="125" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="698" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51165,13 +51171,13 @@
         <v>7</v>
       </c>
       <c r="B698" s="125" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C698" s="125" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D698" s="125" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="699" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51179,13 +51185,13 @@
         <v>7</v>
       </c>
       <c r="B699" s="125" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C699" s="125" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D699" s="125" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="700" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51193,13 +51199,13 @@
         <v>7</v>
       </c>
       <c r="B700" s="125" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C700" s="125" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D700" s="125" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="701" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51207,13 +51213,13 @@
         <v>7</v>
       </c>
       <c r="B701" s="125" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C701" s="125" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D701" s="125" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="702" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51221,13 +51227,13 @@
         <v>7</v>
       </c>
       <c r="B702" s="125" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C702" s="125" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D702" s="125" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="703" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51235,13 +51241,13 @@
         <v>7</v>
       </c>
       <c r="B703" s="125" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C703" s="125" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D703" s="125" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="704" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51249,13 +51255,13 @@
         <v>7</v>
       </c>
       <c r="B704" s="125" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C704" s="125" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="D704" s="125" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="705" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51263,13 +51269,13 @@
         <v>7</v>
       </c>
       <c r="B705" s="125" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C705" s="125" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="D705" s="125" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="706" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
@@ -51277,12 +51283,40 @@
         <v>7</v>
       </c>
       <c r="B706" s="125" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C706" s="125" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D706" s="125" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A707" s="33">
+        <v>7</v>
+      </c>
+      <c r="B707" s="125" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C707" s="125" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D707" s="125" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A708" s="33">
+        <v>7</v>
+      </c>
+      <c r="B708" s="125" t="s">
         <v>1254</v>
       </c>
-      <c r="C706" s="125" t="s">
+      <c r="C708" s="125" t="s">
         <v>1652</v>
       </c>
-      <c r="D706" s="125" t="s">
+      <c r="D708" s="125" t="s">
         <v>1687</v>
       </c>
     </row>
